--- a/sources/case/ContractRequest.xlsx
+++ b/sources/case/ContractRequest.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandanzhan/Workspace/QiFeiApi/sources/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="460" windowWidth="25360" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="4680" yWindow="465" windowWidth="25365" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -127,13 +127,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -161,13 +168,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -442,9 +452,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -464,7 +474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -485,6 +495,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -494,15 +505,22 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -555,6 +573,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -564,12 +583,24 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -634,6 +665,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/ContractRequest.xlsx
+++ b/sources/case/ContractRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="465" windowWidth="25365" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="4680" yWindow="465" windowWidth="25365" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -46,89 +46,90 @@
     <t>API</t>
   </si>
   <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>contract_no</t>
+  </si>
+  <si>
+    <t>1108686542265</t>
+  </si>
+  <si>
+    <t>to_owner</t>
+  </si>
+  <si>
+    <t>张帅</t>
+  </si>
+  <si>
+    <t>from_unit</t>
+  </si>
+  <si>
+    <t>易企飞</t>
+  </si>
+  <si>
+    <t>to_unit</t>
+  </si>
+  <si>
+    <t>快人科技</t>
+  </si>
+  <si>
+    <t>from_owner</t>
+  </si>
+  <si>
+    <t>展丹丹</t>
+  </si>
+  <si>
+    <t>sign_date</t>
+  </si>
+  <si>
+    <t>2017-11-02T15:55:00+08:00</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>哦哦 my 突突突突突</t>
+  </si>
+  <si>
+    <t>approval_create</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approval_creating</t>
+  </si>
+  <si>
+    <t>ContractRequest_01</t>
+  </si>
+  <si>
     <t>ContractRequest</t>
-  </si>
-  <si>
-    <t>BasePath</t>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>contract_no</t>
-  </si>
-  <si>
-    <t>1108686542265</t>
-  </si>
-  <si>
-    <t>to_owner</t>
-  </si>
-  <si>
-    <t>张帅</t>
-  </si>
-  <si>
-    <t>from_unit</t>
-  </si>
-  <si>
-    <t>易企飞</t>
-  </si>
-  <si>
-    <t>to_unit</t>
-  </si>
-  <si>
-    <t>快人科技</t>
-  </si>
-  <si>
-    <t>from_owner</t>
-  </si>
-  <si>
-    <t>展丹丹</t>
-  </si>
-  <si>
-    <t>sign_date</t>
-  </si>
-  <si>
-    <t>2017-11-02T15:55:00+08:00</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>哦哦 my 突突突突突</t>
-  </si>
-  <si>
-    <t>approval_create</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>approval_creating</t>
-  </si>
-  <si>
-    <t>ContractRequest_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -142,6 +143,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,50 +457,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -504,77 +522,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -583,85 +603,86 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
